--- a/Product-Backlog/Backlog housing.xlsx
+++ b/Product-Backlog/Backlog housing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Sprint</t>
   </si>
@@ -110,6 +110,24 @@
     <t>Sprint 3</t>
   </si>
   <si>
+    <t>Ajouter un logement (propriétaire)</t>
+  </si>
+  <si>
+    <t>Formulaire avec nom, adresse, photos, prix, équipements</t>
+  </si>
+  <si>
+    <t>Modifier un logement (propriétaire)</t>
+  </si>
+  <si>
+    <t>Modifier informations existantes</t>
+  </si>
+  <si>
+    <t>Supprimer un logement (propriétaire)</t>
+  </si>
+  <si>
+    <t>Supprimer logement de la liste</t>
+  </si>
+  <si>
     <t>Récapitulatif réservation</t>
   </si>
   <si>
@@ -126,6 +144,12 @@
   </si>
   <si>
     <t>Confirmation + email</t>
+  </si>
+  <si>
+    <t>Consulter les réservations de mes logements (propriétaire)</t>
+  </si>
+  <si>
+    <t>Afficher réservations avec date, utilisateur, logement réservé</t>
   </si>
 </sst>
 </file>
@@ -299,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +730,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,16 +754,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -742,89 +772,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +887,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1391,22 +1436,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="29.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="50.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="12.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="31.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="54.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="57.6" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="57.6" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1576,7 +1621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>8</v>
@@ -1593,7 +1638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1601,13 +1646,81 @@
         <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Product-Backlog/Backlog housing.xlsx
+++ b/Product-Backlog/Backlog housing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>Sprint</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Home page</t>
+  </si>
+  <si>
+    <t>Créer un compte propriétaire</t>
+  </si>
+  <si>
+    <t>Se connecter Propriétaire</t>
   </si>
   <si>
     <t>Sprint 2</t>
@@ -1436,10 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1538,10 +1544,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -1550,15 +1556,15 @@
         <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
@@ -1567,32 +1573,32 @@
         <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>7</v>
@@ -1601,100 +1607,100 @@
         <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -1703,24 +1709,58 @@
         <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Product-Backlog/Backlog housing.xlsx
+++ b/Product-Backlog/Backlog housing.xlsx
@@ -27,7 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+  <si>
+    <r>
+      <t>Sprint 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> -------&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="9"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>AUTHENTIFICATION</t>
+    </r>
+  </si>
   <si>
     <t>Sprint</t>
   </si>
@@ -86,6 +115,33 @@
     <t>Se connecter Propriétaire</t>
   </si>
   <si>
+    <r>
+      <t>Sprint 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -------&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Recherche  et réservation logement</t>
+    </r>
+  </si>
+  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -111,6 +167,33 @@
   </si>
   <si>
     <t>Photos + description</t>
+  </si>
+  <si>
+    <r>
+      <t>Sprint 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -------&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="6" tint="-0.25"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gestion des logements</t>
+    </r>
   </si>
   <si>
     <t>Sprint 3</t>
@@ -168,13 +251,22 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -185,6 +277,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -328,6 +444,48 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="6" tint="-0.25"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -338,6 +496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,12 +550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,10 +747,72 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.25"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="7" tint="-0.5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="-0.5"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="-0.5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color theme="7" tint="-0.5"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -609,6 +829,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.25"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,183 +994,240 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,6 +1497,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FAF7D4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1442,10 +1768,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1454,316 +1780,409 @@
     <col min="2" max="2" width="50.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="12.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="54.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="54.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.15" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="E6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="D17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="2:3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="20"/>
+      <c r="B22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" ht="15.15" spans="1:4">
+      <c r="A23" s="20"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="D27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="D29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E30" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="D31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>42</v>
+      <c r="D32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
